--- a/PROJECTS MACRO/MACRO_PROCESS - Report Aging PerGL PerBranch/RPA Preference/.Source/JDE/1205_ININ.xlsx
+++ b/PROJECTS MACRO/MACRO_PROCESS - Report Aging PerGL PerBranch/RPA Preference/.Source/JDE/1205_ININ.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwinarsih\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\MACRO_PROCESS - Report Aging PerGL PerBranch\RPA Preference\.Source\JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B38BCCE6-9591-4B8E-AF95-0CFD7BFDEC91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{802559AA-A2C0-465F-95AB-5E54DC3F377A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{AA1AD7DB-F475-4BCF-B7C1-DDD07B1DAEFD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="R5641114_GG0001_1905041_PDF" sheetId="1" r:id="rId1"/>
+    <sheet name="R5641114_GG0001_1956589_PDF (1)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -544,19 +544,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Bahnschrift"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Bahnschrift"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
@@ -569,99 +571,114 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Bahnschrift"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Bahnschrift"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Bahnschrift"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Bahnschrift"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Bahnschrift"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="Bahnschrift"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Bahnschrift"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Bahnschrift"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Bahnschrift"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Bahnschrift"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Bahnschrift"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Bahnschrift"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Bahnschrift"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Bahnschrift"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Bahnschrift"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1069,7 +1086,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1357,42 +1374,42 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD015915-73C5-4DDF-B109-060FBA5188F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="S1" s="1">
-        <v>45666</v>
+        <v>45721</v>
       </c>
       <c r="T1" s="2">
-        <v>0.9078356481481481</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+        <v>0.58791666666666664</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="K3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="S4" t="s">
         <v>3</v>
       </c>
@@ -1400,12 +1417,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="J5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I6">
         <v>1205</v>
       </c>
@@ -1413,7 +1430,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1424,7 +1441,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1438,7 +1455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>11</v>
       </c>
@@ -1458,7 +1475,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1472,7 +1489,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>97520</v>
       </c>
@@ -1492,13 +1509,13 @@
         <v>23</v>
       </c>
       <c r="R11">
-        <v>1386</v>
+        <v>1445</v>
       </c>
       <c r="T11">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>99501</v>
       </c>
@@ -1518,13 +1535,13 @@
         <v>23</v>
       </c>
       <c r="R12">
-        <v>1178</v>
+        <v>1237</v>
       </c>
       <c r="T12">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>211498</v>
       </c>
@@ -1541,13 +1558,13 @@
         <v>28</v>
       </c>
       <c r="R13">
-        <v>1350</v>
+        <v>1409</v>
       </c>
       <c r="T13">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>221244</v>
       </c>
@@ -1561,7 +1578,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>221245</v>
       </c>
@@ -1578,13 +1595,13 @@
         <v>28</v>
       </c>
       <c r="R15">
-        <v>569</v>
+        <v>628</v>
       </c>
       <c r="T15">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>228937</v>
       </c>
@@ -1601,13 +1618,13 @@
         <v>35</v>
       </c>
       <c r="R16">
-        <v>2945</v>
+        <v>3004</v>
       </c>
       <c r="T16">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>230020</v>
       </c>
@@ -1624,13 +1641,13 @@
         <v>28</v>
       </c>
       <c r="R17">
-        <v>2759</v>
+        <v>2818</v>
       </c>
       <c r="T17">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>230029</v>
       </c>
@@ -1647,13 +1664,13 @@
         <v>28</v>
       </c>
       <c r="R18">
-        <v>950</v>
+        <v>1009</v>
       </c>
       <c r="T18">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>230408</v>
       </c>
@@ -1670,13 +1687,13 @@
         <v>28</v>
       </c>
       <c r="R19">
-        <v>2864</v>
+        <v>2923</v>
       </c>
       <c r="T19">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>230409</v>
       </c>
@@ -1693,13 +1710,13 @@
         <v>28</v>
       </c>
       <c r="R20">
-        <v>2864</v>
+        <v>2923</v>
       </c>
       <c r="T20">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>230415</v>
       </c>
@@ -1716,13 +1733,13 @@
         <v>28</v>
       </c>
       <c r="R21">
-        <v>2864</v>
+        <v>2923</v>
       </c>
       <c r="T21">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>230419</v>
       </c>
@@ -1739,13 +1756,13 @@
         <v>28</v>
       </c>
       <c r="R22">
-        <v>2869</v>
+        <v>2928</v>
       </c>
       <c r="T22">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>230934</v>
       </c>
@@ -1762,13 +1779,13 @@
         <v>28</v>
       </c>
       <c r="R23">
-        <v>2856</v>
+        <v>2915</v>
       </c>
       <c r="T23">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>230939</v>
       </c>
@@ -1785,13 +1802,13 @@
         <v>28</v>
       </c>
       <c r="R24">
-        <v>2709</v>
+        <v>2768</v>
       </c>
       <c r="T24">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>230940</v>
       </c>
@@ -1808,13 +1825,13 @@
         <v>28</v>
       </c>
       <c r="R25">
-        <v>2763</v>
+        <v>2822</v>
       </c>
       <c r="T25">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>230960</v>
       </c>
@@ -1831,13 +1848,13 @@
         <v>28</v>
       </c>
       <c r="R26">
-        <v>2800</v>
+        <v>2859</v>
       </c>
       <c r="T26">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>230986</v>
       </c>
@@ -1854,13 +1871,13 @@
         <v>28</v>
       </c>
       <c r="R27">
-        <v>2813</v>
+        <v>2872</v>
       </c>
       <c r="T27">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>230987</v>
       </c>
@@ -1877,13 +1894,13 @@
         <v>28</v>
       </c>
       <c r="R28">
-        <v>2813</v>
+        <v>2872</v>
       </c>
       <c r="T28">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>231001</v>
       </c>
@@ -1900,13 +1917,13 @@
         <v>28</v>
       </c>
       <c r="R29">
-        <v>2731</v>
+        <v>2790</v>
       </c>
       <c r="T29">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>231004</v>
       </c>
@@ -1923,13 +1940,13 @@
         <v>28</v>
       </c>
       <c r="R30">
-        <v>2812</v>
+        <v>2871</v>
       </c>
       <c r="T30">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>231007</v>
       </c>
@@ -1952,13 +1969,13 @@
         <v>28</v>
       </c>
       <c r="R31">
-        <v>2856</v>
+        <v>2915</v>
       </c>
       <c r="T31">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>231014</v>
       </c>
@@ -1975,19 +1992,19 @@
         <v>42</v>
       </c>
       <c r="M32">
-        <v>50.18</v>
+        <v>50.17</v>
       </c>
       <c r="P32" t="s">
         <v>28</v>
       </c>
       <c r="R32">
-        <v>2856</v>
+        <v>2915</v>
       </c>
       <c r="T32">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>231020</v>
       </c>
@@ -2004,13 +2021,13 @@
         <v>28</v>
       </c>
       <c r="R33">
-        <v>2702</v>
+        <v>2761</v>
       </c>
       <c r="T33">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>231021</v>
       </c>
@@ -2027,13 +2044,13 @@
         <v>28</v>
       </c>
       <c r="R34">
-        <v>2800</v>
+        <v>2859</v>
       </c>
       <c r="T34">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>231029</v>
       </c>
@@ -2050,13 +2067,13 @@
         <v>28</v>
       </c>
       <c r="R35">
-        <v>2850</v>
+        <v>2909</v>
       </c>
       <c r="T35">
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>231031</v>
       </c>
@@ -2073,13 +2090,13 @@
         <v>28</v>
       </c>
       <c r="R36">
-        <v>2772</v>
+        <v>2831</v>
       </c>
       <c r="T36">
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>231035</v>
       </c>
@@ -2096,13 +2113,13 @@
         <v>28</v>
       </c>
       <c r="R37">
-        <v>2869</v>
+        <v>2928</v>
       </c>
       <c r="T37">
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>231037</v>
       </c>
@@ -2119,13 +2136,13 @@
         <v>28</v>
       </c>
       <c r="R38">
-        <v>2765</v>
+        <v>2824</v>
       </c>
       <c r="T38">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>231074</v>
       </c>
@@ -2142,13 +2159,13 @@
         <v>28</v>
       </c>
       <c r="R39">
-        <v>2683</v>
+        <v>2742</v>
       </c>
       <c r="T39">
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>231075</v>
       </c>
@@ -2165,13 +2182,13 @@
         <v>28</v>
       </c>
       <c r="R40">
-        <v>2808</v>
+        <v>2867</v>
       </c>
       <c r="T40">
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>231109</v>
       </c>
@@ -2188,13 +2205,13 @@
         <v>28</v>
       </c>
       <c r="R41">
-        <v>2799</v>
+        <v>2858</v>
       </c>
       <c r="T41">
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>231130</v>
       </c>
@@ -2211,13 +2228,13 @@
         <v>28</v>
       </c>
       <c r="R42">
-        <v>2856</v>
+        <v>2915</v>
       </c>
       <c r="T42">
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>231151</v>
       </c>
@@ -2234,13 +2251,13 @@
         <v>28</v>
       </c>
       <c r="R43">
-        <v>2850</v>
+        <v>2909</v>
       </c>
       <c r="T43">
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>231152</v>
       </c>
@@ -2257,13 +2274,13 @@
         <v>28</v>
       </c>
       <c r="R44">
-        <v>2750</v>
+        <v>2809</v>
       </c>
       <c r="T44">
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>231154</v>
       </c>
@@ -2280,13 +2297,13 @@
         <v>28</v>
       </c>
       <c r="R45">
-        <v>2808</v>
+        <v>2867</v>
       </c>
       <c r="T45">
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>231188</v>
       </c>
@@ -2303,13 +2320,13 @@
         <v>28</v>
       </c>
       <c r="R46">
-        <v>2869</v>
+        <v>2928</v>
       </c>
       <c r="T46">
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>231195</v>
       </c>
@@ -2326,13 +2343,13 @@
         <v>28</v>
       </c>
       <c r="R47">
-        <v>2801</v>
+        <v>2860</v>
       </c>
       <c r="T47">
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>231196</v>
       </c>
@@ -2349,13 +2366,13 @@
         <v>28</v>
       </c>
       <c r="R48">
-        <v>2856</v>
+        <v>2915</v>
       </c>
       <c r="T48">
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>231202</v>
       </c>
@@ -2372,13 +2389,13 @@
         <v>28</v>
       </c>
       <c r="R49">
-        <v>2856</v>
+        <v>2915</v>
       </c>
       <c r="T49">
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>231207</v>
       </c>
@@ -2395,13 +2412,13 @@
         <v>28</v>
       </c>
       <c r="R50">
-        <v>2812</v>
+        <v>2871</v>
       </c>
       <c r="T50">
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>231258</v>
       </c>
@@ -2418,13 +2435,13 @@
         <v>28</v>
       </c>
       <c r="R51">
-        <v>2856</v>
+        <v>2915</v>
       </c>
       <c r="T51">
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>231265</v>
       </c>
@@ -2441,13 +2458,13 @@
         <v>28</v>
       </c>
       <c r="R52">
-        <v>2812</v>
+        <v>2871</v>
       </c>
       <c r="T52">
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>231300</v>
       </c>
@@ -2464,13 +2481,13 @@
         <v>28</v>
       </c>
       <c r="R53">
-        <v>2808</v>
+        <v>2867</v>
       </c>
       <c r="T53">
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>231301</v>
       </c>
@@ -2487,13 +2504,13 @@
         <v>28</v>
       </c>
       <c r="R54">
-        <v>2683</v>
+        <v>2742</v>
       </c>
       <c r="T54">
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>231312</v>
       </c>
@@ -2510,13 +2527,13 @@
         <v>28</v>
       </c>
       <c r="R55">
-        <v>2812</v>
+        <v>2871</v>
       </c>
       <c r="T55">
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>231322</v>
       </c>
@@ -2533,13 +2550,13 @@
         <v>28</v>
       </c>
       <c r="R56">
-        <v>2856</v>
+        <v>2915</v>
       </c>
       <c r="T56">
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>231327</v>
       </c>
@@ -2556,19 +2573,19 @@
         <v>907.5</v>
       </c>
       <c r="M57">
-        <v>422.74</v>
+        <v>422.73</v>
       </c>
       <c r="P57" t="s">
         <v>28</v>
       </c>
       <c r="R57">
-        <v>2765</v>
+        <v>2824</v>
       </c>
       <c r="T57">
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>231328</v>
       </c>
@@ -2585,13 +2602,13 @@
         <v>28</v>
       </c>
       <c r="R58">
-        <v>2812</v>
+        <v>2871</v>
       </c>
       <c r="T58">
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>231339</v>
       </c>
@@ -2608,13 +2625,13 @@
         <v>28</v>
       </c>
       <c r="R59">
-        <v>2869</v>
+        <v>2928</v>
       </c>
       <c r="T59">
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>231377</v>
       </c>
@@ -2631,13 +2648,13 @@
         <v>28</v>
       </c>
       <c r="R60">
-        <v>2772</v>
+        <v>2831</v>
       </c>
       <c r="T60">
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>231511</v>
       </c>
@@ -2654,13 +2671,13 @@
         <v>28</v>
       </c>
       <c r="R61">
-        <v>2763</v>
+        <v>2822</v>
       </c>
       <c r="T61">
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>232040</v>
       </c>
@@ -2677,13 +2694,13 @@
         <v>28</v>
       </c>
       <c r="R62">
-        <v>2801</v>
+        <v>2860</v>
       </c>
       <c r="T62">
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>232401</v>
       </c>
@@ -2700,19 +2717,19 @@
         <v>36</v>
       </c>
       <c r="M63">
-        <v>25.7</v>
+        <v>25.69</v>
       </c>
       <c r="P63" t="s">
         <v>28</v>
       </c>
       <c r="R63">
-        <v>2763</v>
+        <v>2822</v>
       </c>
       <c r="T63">
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>232770</v>
       </c>
@@ -2729,13 +2746,13 @@
         <v>28</v>
       </c>
       <c r="R64">
-        <v>2750</v>
+        <v>2809</v>
       </c>
       <c r="T64">
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>233073</v>
       </c>
@@ -2752,13 +2769,13 @@
         <v>28</v>
       </c>
       <c r="R65">
-        <v>2750</v>
+        <v>2809</v>
       </c>
       <c r="T65">
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>233076</v>
       </c>
@@ -2775,13 +2792,13 @@
         <v>28</v>
       </c>
       <c r="R66">
-        <v>2750</v>
+        <v>2809</v>
       </c>
       <c r="T66">
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>233488</v>
       </c>
@@ -2798,13 +2815,13 @@
         <v>28</v>
       </c>
       <c r="R67">
-        <v>2794</v>
+        <v>2853</v>
       </c>
       <c r="T67">
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>233490</v>
       </c>
@@ -2821,13 +2838,13 @@
         <v>28</v>
       </c>
       <c r="R68">
-        <v>2799</v>
+        <v>2858</v>
       </c>
       <c r="T68">
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>233491</v>
       </c>
@@ -2844,13 +2861,13 @@
         <v>28</v>
       </c>
       <c r="R69">
-        <v>2800</v>
+        <v>2859</v>
       </c>
       <c r="T69">
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>233714</v>
       </c>
@@ -2867,13 +2884,13 @@
         <v>28</v>
       </c>
       <c r="R70">
-        <v>2750</v>
+        <v>2809</v>
       </c>
       <c r="T70">
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>233716</v>
       </c>
@@ -2890,13 +2907,13 @@
         <v>28</v>
       </c>
       <c r="R71">
-        <v>2750</v>
+        <v>2809</v>
       </c>
       <c r="T71">
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>236692</v>
       </c>
@@ -2913,13 +2930,13 @@
         <v>28</v>
       </c>
       <c r="R72">
-        <v>2702</v>
+        <v>2761</v>
       </c>
       <c r="T72">
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>239689</v>
       </c>
@@ -2936,13 +2953,13 @@
         <v>28</v>
       </c>
       <c r="R73">
-        <v>247</v>
+        <v>306</v>
       </c>
       <c r="T73">
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>267890</v>
       </c>
@@ -2965,13 +2982,13 @@
         <v>28</v>
       </c>
       <c r="R74">
-        <v>147</v>
+        <v>206</v>
       </c>
       <c r="T74">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>269477</v>
       </c>
@@ -2994,13 +3011,13 @@
         <v>28</v>
       </c>
       <c r="R75">
-        <v>181</v>
+        <v>240</v>
       </c>
       <c r="T75">
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>272643</v>
       </c>
@@ -3014,13 +3031,13 @@
         <v>28</v>
       </c>
       <c r="R76">
-        <v>1199</v>
+        <v>1258</v>
       </c>
       <c r="T76">
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>273516</v>
       </c>
@@ -3043,13 +3060,13 @@
         <v>28</v>
       </c>
       <c r="R77">
-        <v>216</v>
+        <v>275</v>
       </c>
       <c r="T77">
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>274787</v>
       </c>
@@ -3066,13 +3083,13 @@
         <v>28</v>
       </c>
       <c r="R78">
-        <v>1254</v>
+        <v>1313</v>
       </c>
       <c r="T78">
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>275251</v>
       </c>
@@ -3086,13 +3103,13 @@
         <v>28</v>
       </c>
       <c r="R79">
-        <v>917</v>
+        <v>976</v>
       </c>
       <c r="T79">
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>276420</v>
       </c>
@@ -3109,13 +3126,13 @@
         <v>115</v>
       </c>
       <c r="R80">
-        <v>737</v>
+        <v>796</v>
       </c>
       <c r="T80">
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>276638</v>
       </c>
@@ -3132,13 +3149,13 @@
         <v>115</v>
       </c>
       <c r="R81">
-        <v>166</v>
+        <v>225</v>
       </c>
       <c r="T81">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>276639</v>
       </c>
@@ -3152,13 +3169,13 @@
         <v>115</v>
       </c>
       <c r="R82">
-        <v>156</v>
+        <v>215</v>
       </c>
       <c r="T82">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>277649</v>
       </c>
@@ -3175,13 +3192,13 @@
         <v>28</v>
       </c>
       <c r="R83">
-        <v>1017</v>
+        <v>1076</v>
       </c>
       <c r="T83">
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>277822</v>
       </c>
@@ -3198,13 +3215,13 @@
         <v>28</v>
       </c>
       <c r="R84">
-        <v>737</v>
+        <v>796</v>
       </c>
       <c r="T84">
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>277911</v>
       </c>
@@ -3218,13 +3235,13 @@
         <v>28</v>
       </c>
       <c r="R85">
-        <v>943</v>
+        <v>1002</v>
       </c>
       <c r="T85">
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>278720</v>
       </c>
@@ -3241,13 +3258,13 @@
         <v>28</v>
       </c>
       <c r="R86">
-        <v>798</v>
+        <v>857</v>
       </c>
       <c r="T86">
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>280262</v>
       </c>
@@ -3264,13 +3281,13 @@
         <v>28</v>
       </c>
       <c r="R87">
-        <v>581</v>
+        <v>640</v>
       </c>
       <c r="T87">
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>281170</v>
       </c>
@@ -3284,13 +3301,13 @@
         <v>28</v>
       </c>
       <c r="R88">
-        <v>986</v>
+        <v>1045</v>
       </c>
       <c r="T88">
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>281643</v>
       </c>
@@ -3307,13 +3324,13 @@
         <v>115</v>
       </c>
       <c r="R89">
-        <v>1003</v>
+        <v>1062</v>
       </c>
       <c r="T89">
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>281644</v>
       </c>
@@ -3330,13 +3347,13 @@
         <v>115</v>
       </c>
       <c r="R90">
-        <v>579</v>
+        <v>638</v>
       </c>
       <c r="T90">
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>281646</v>
       </c>
@@ -3353,13 +3370,13 @@
         <v>35</v>
       </c>
       <c r="R91">
-        <v>917</v>
+        <v>976</v>
       </c>
       <c r="T91">
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>281848</v>
       </c>
@@ -3376,13 +3393,13 @@
         <v>28</v>
       </c>
       <c r="R92">
-        <v>884</v>
+        <v>943</v>
       </c>
       <c r="T92">
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>281849</v>
       </c>
@@ -3399,13 +3416,13 @@
         <v>28</v>
       </c>
       <c r="R93">
-        <v>846</v>
+        <v>905</v>
       </c>
       <c r="T93">
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>281850</v>
       </c>
@@ -3422,13 +3439,13 @@
         <v>28</v>
       </c>
       <c r="R94">
-        <v>845</v>
+        <v>904</v>
       </c>
       <c r="T94">
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>281851</v>
       </c>
@@ -3445,13 +3462,13 @@
         <v>28</v>
       </c>
       <c r="R95">
-        <v>845</v>
+        <v>904</v>
       </c>
       <c r="T95">
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>283966</v>
       </c>
@@ -3474,13 +3491,13 @@
         <v>28</v>
       </c>
       <c r="R96">
-        <v>917</v>
+        <v>976</v>
       </c>
       <c r="T96">
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>284004</v>
       </c>
@@ -3503,13 +3520,13 @@
         <v>28</v>
       </c>
       <c r="R97">
-        <v>930</v>
+        <v>989</v>
       </c>
       <c r="T97">
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>284456</v>
       </c>
@@ -3526,13 +3543,13 @@
         <v>28</v>
       </c>
       <c r="R98">
-        <v>800</v>
+        <v>859</v>
       </c>
       <c r="T98">
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>285407</v>
       </c>
@@ -3549,13 +3566,13 @@
         <v>28</v>
       </c>
       <c r="R99">
-        <v>884</v>
+        <v>943</v>
       </c>
       <c r="T99">
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>285408</v>
       </c>
@@ -3572,13 +3589,13 @@
         <v>28</v>
       </c>
       <c r="R100">
-        <v>884</v>
+        <v>943</v>
       </c>
       <c r="T100">
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>285409</v>
       </c>
@@ -3595,13 +3612,13 @@
         <v>28</v>
       </c>
       <c r="R101">
-        <v>884</v>
+        <v>943</v>
       </c>
       <c r="T101">
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>287982</v>
       </c>
@@ -3618,13 +3635,13 @@
         <v>28</v>
       </c>
       <c r="R102">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="T102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>288050</v>
       </c>
@@ -3647,13 +3664,13 @@
         <v>28</v>
       </c>
       <c r="R103">
-        <v>754</v>
+        <v>813</v>
       </c>
       <c r="T103">
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>288476</v>
       </c>
@@ -3670,13 +3687,13 @@
         <v>28</v>
       </c>
       <c r="R104">
-        <v>665</v>
+        <v>724</v>
       </c>
       <c r="T104">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>289092</v>
       </c>
@@ -3693,19 +3710,19 @@
         <v>59</v>
       </c>
       <c r="M105">
-        <v>54.31</v>
+        <v>54.28</v>
       </c>
       <c r="P105" t="s">
         <v>28</v>
       </c>
       <c r="R105">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="T105">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>291679</v>
       </c>
@@ -3722,13 +3739,13 @@
         <v>28</v>
       </c>
       <c r="R106">
-        <v>579</v>
+        <v>638</v>
       </c>
       <c r="T106">
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>291955</v>
       </c>
@@ -3745,13 +3762,13 @@
         <v>28</v>
       </c>
       <c r="R107">
-        <v>554</v>
+        <v>613</v>
       </c>
       <c r="T107">
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>291956</v>
       </c>
@@ -3768,13 +3785,13 @@
         <v>28</v>
       </c>
       <c r="R108">
-        <v>554</v>
+        <v>613</v>
       </c>
       <c r="T108">
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>294871</v>
       </c>
@@ -3791,13 +3808,13 @@
         <v>28</v>
       </c>
       <c r="R109">
-        <v>406</v>
+        <v>465</v>
       </c>
       <c r="T109">
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>295584</v>
       </c>
@@ -3820,13 +3837,13 @@
         <v>28</v>
       </c>
       <c r="R110">
-        <v>168</v>
+        <v>227</v>
       </c>
       <c r="T110">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>295599</v>
       </c>
@@ -3846,13 +3863,13 @@
         <v>28</v>
       </c>
       <c r="R111">
-        <v>153</v>
+        <v>212</v>
       </c>
       <c r="T111">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>296442</v>
       </c>
@@ -3866,22 +3883,22 @@
         <v>45611</v>
       </c>
       <c r="K112">
-        <v>905</v>
+        <v>805</v>
       </c>
       <c r="M112">
-        <v>174.95</v>
+        <v>155.49</v>
       </c>
       <c r="P112" t="s">
         <v>28</v>
       </c>
       <c r="R112">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="T112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>299977</v>
       </c>
@@ -3898,13 +3915,13 @@
         <v>115</v>
       </c>
       <c r="R113">
-        <v>141</v>
+        <v>200</v>
       </c>
       <c r="T113">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>299978</v>
       </c>
@@ -3921,13 +3938,13 @@
         <v>115</v>
       </c>
       <c r="R114">
-        <v>187</v>
+        <v>246</v>
       </c>
       <c r="T114">
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>300492</v>
       </c>
@@ -3944,13 +3961,13 @@
         <v>115</v>
       </c>
       <c r="R115">
-        <v>160</v>
+        <v>219</v>
       </c>
       <c r="T115">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>303759</v>
       </c>
@@ -3973,18 +3990,18 @@
         <v>28</v>
       </c>
       <c r="R116">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="T116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>32874</v>
       </c>
@@ -3998,7 +4015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>168</v>
       </c>
@@ -4012,7 +4029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>169</v>
       </c>
@@ -4026,7 +4043,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>170</v>
       </c>
@@ -4040,7 +4057,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>171</v>
       </c>
@@ -4054,7 +4071,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>172</v>
       </c>
